--- a/User Stories/Project tracker1.xlsx
+++ b/User Stories/Project tracker1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cmsc-128\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cmsc128\User Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Project</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Employee 1</t>
   </si>
@@ -81,9 +78,6 @@
     <t>Prototype 1 User Stories</t>
   </si>
   <si>
-    <t>Create Guidance Office homepage</t>
-  </si>
-  <si>
     <t>Make Student Information navigation page</t>
   </si>
   <si>
@@ -96,10 +90,49 @@
     <t>Make Student Information update button</t>
   </si>
   <si>
-    <t>Make Test Maker navigation page</t>
-  </si>
-  <si>
     <t>Feb. 7, 2018</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Create Guidance Office website</t>
+  </si>
+  <si>
+    <t>Date Accomplished</t>
+  </si>
+  <si>
+    <t>Create basic navigation</t>
+  </si>
+  <si>
+    <t>Create static homepage</t>
+  </si>
+  <si>
+    <t>Create Student Information Registry</t>
+  </si>
+  <si>
+    <t>Setup basic framework</t>
+  </si>
+  <si>
+    <t>Create Test Maker</t>
+  </si>
+  <si>
+    <t>Create framework</t>
+  </si>
+  <si>
+    <t>Allow test addition at test maker page</t>
+  </si>
+  <si>
+    <t>Allow test editing</t>
+  </si>
+  <si>
+    <t>Display tests</t>
+  </si>
+  <si>
+    <t>Test result computations</t>
   </si>
 </sst>
 </file>
@@ -338,7 +371,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,6 +394,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -382,13 +427,25 @@
     <cellStyle name="Text" xfId="5"/>
     <cellStyle name="Title" xfId="9" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="9"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -423,8 +480,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Custom Table Style" defaultPivotStyle="PivotStyleMedium2">
     <tableStyle name="Custom Table Style" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -513,10 +570,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ProjectTracker" displayName="ProjectTracker" ref="B3:B9" totalsRowShown="0" tableBorderDxfId="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="B3:B9"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Project" dataCellStyle="Text"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ProjectTracker" displayName="ProjectTracker" ref="B3:D15" totalsRowShown="0" dataDxfId="3" tableBorderDxfId="2" headerRowCellStyle="Heading 2" dataCellStyle="Text">
+  <autoFilter ref="B3:D15"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Story" dataDxfId="1" dataCellStyle="Text"/>
+    <tableColumn id="2" name="Task" dataDxfId="4" dataCellStyle="Text"/>
+    <tableColumn id="3" name="Date Accomplished" dataDxfId="0" dataCellStyle="Text"/>
   </tableColumns>
   <tableStyleInfo name="Custom Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -774,64 +833,146 @@
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:B9"/>
+  <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="11">
+        <v>43141</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11">
+        <v>43141</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="11">
+        <v>43143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="2:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="D7" s="11">
+        <v>43148</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="D8" s="11">
+        <v>43152</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="D9" s="11">
+        <v>43153</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="11">
+        <v>43153</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -863,74 +1004,74 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" customWidth="1"/>
-    <col min="2" max="3" width="25.58203125" customWidth="1"/>
-    <col min="4" max="4" width="2.58203125" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:3" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/User Stories/Project tracker1.xlsx
+++ b/User Stories/Project tracker1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Project Tracker" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Employee 1</t>
   </si>
@@ -133,6 +133,27 @@
   </si>
   <si>
     <t>Test result computations</t>
+  </si>
+  <si>
+    <t>Client Side Data validation</t>
+  </si>
+  <si>
+    <t>Date Requested</t>
+  </si>
+  <si>
+    <t>Server Side Data Validation</t>
+  </si>
+  <si>
+    <t>in-progress - 10%</t>
+  </si>
+  <si>
+    <t>in-progress - 70%</t>
+  </si>
+  <si>
+    <t>in-progress - 5%</t>
+  </si>
+  <si>
+    <t>Floating entities</t>
   </si>
 </sst>
 </file>
@@ -371,7 +392,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,6 +427,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -427,7 +454,13 @@
     <cellStyle name="Text" xfId="5"/>
     <cellStyle name="Title" xfId="9" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -440,9 +473,6 @@
           <color theme="9"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
@@ -480,8 +510,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Custom Table Style" defaultPivotStyle="PivotStyleMedium2">
     <tableStyle name="Custom Table Style" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -570,12 +600,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ProjectTracker" displayName="ProjectTracker" ref="B3:D15" totalsRowShown="0" dataDxfId="3" tableBorderDxfId="2" headerRowCellStyle="Heading 2" dataCellStyle="Text">
-  <autoFilter ref="B3:D15"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Story" dataDxfId="1" dataCellStyle="Text"/>
-    <tableColumn id="2" name="Task" dataDxfId="4" dataCellStyle="Text"/>
-    <tableColumn id="3" name="Date Accomplished" dataDxfId="0" dataCellStyle="Text"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ProjectTracker" displayName="ProjectTracker" ref="B3:E18" totalsRowShown="0" dataDxfId="5" tableBorderDxfId="4" headerRowCellStyle="Heading 2" dataCellStyle="Text">
+  <autoFilter ref="B3:E18"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Story" dataDxfId="3" dataCellStyle="Text"/>
+    <tableColumn id="2" name="Task" dataDxfId="2" dataCellStyle="Text"/>
+    <tableColumn id="5" name="Date Requested" dataDxfId="0" dataCellStyle="Text"/>
+    <tableColumn id="3" name="Date Accomplished" dataDxfId="1" dataCellStyle="Text"/>
   </tableColumns>
   <tableStyleInfo name="Custom Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -833,11 +864,11 @@
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:D15"/>
+  <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -846,20 +877,21 @@
     <col min="2" max="2" width="47.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="41.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="24.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
@@ -867,112 +899,191 @@
         <v>22</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
+        <v>43138</v>
+      </c>
+      <c r="E4" s="11">
         <v>43141</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="11">
+        <v>43138</v>
+      </c>
+      <c r="E5" s="11">
         <v>43141</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
+        <v>43138</v>
+      </c>
+      <c r="E6" s="11">
         <v>43143</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
+        <v>43138</v>
+      </c>
+      <c r="E7" s="11">
         <v>43148</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="11">
+        <v>35</v>
+      </c>
+      <c r="D8" s="12">
+        <v>43138</v>
+      </c>
+      <c r="E8" s="11">
         <v>43152</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="11">
-        <v>43153</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="D9" s="12">
+        <v>43138</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="12">
+        <v>43138</v>
+      </c>
+      <c r="E10" s="11">
+        <v>43149</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="12">
+        <v>43138</v>
+      </c>
+      <c r="E11" s="11">
+        <v>43152</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="12">
+        <v>43138</v>
+      </c>
+      <c r="E12" s="11">
+        <v>43153</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="D13" s="12">
+        <v>43138</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D14" s="12">
+        <v>43138</v>
+      </c>
+      <c r="E14" s="11">
         <v>43153</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="7" t="s">
+    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="7" t="s">
+      <c r="D15" s="13">
+        <v>43138</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
+      <c r="D16" s="13">
+        <v>43138</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
+      <c r="D17" s="11">
+        <v>43138</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D18" s="11">
+        <v>43138</v>
+      </c>
+      <c r="E18" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="2">
